--- a/biology/Zoologie/Gonopore/Gonopore.xlsx
+++ b/biology/Zoologie/Gonopore/Gonopore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gonopore, parfois appelé gonadopore, est l’orifice génital de nombreux invertébrés, notamment des hexapodes.
 Pour les insectes, c’est l’ouverture du conduit génital. Plus spécifiquement, chez la femelle non modifiée, c’est l’ouverture de l’oviducte et chez le mâle c’est l’ouverture du canal éjaculatoire.
